--- a/text.xlsx
+++ b/text.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A5177\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1CE084-0899-4629-9F29-BD743F8D5AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{926CF62E-9AC3-4199-B7C1-1C080874A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F286EF09-5064-4DBC-A605-9210B41578DA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F286EF09-5064-4DBC-A605-9210B41578DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,20 +122,28 @@
 Remember to personalize the content, add relevant details, and make it resonate with your company culture. Happy newsletter crafting! 🌟📩</t>
   </si>
   <si>
-    <t>C:/Users/A5177/J2.png</t>
-  </si>
-  <si>
-    <t>C:/Users/A5177/J4.png</t>
+    <t>https://raw.githubusercontent.com/gurpreetsondhi1/Newsletter/f3c3cf3ba84225a54b62bd38d4dabc9ef607ffbe/J2.png</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gurpreetsondhi1/Newsletter/f3c3cf3ba84225a54b62bd38d4dabc9ef607ffbe/J4.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -158,16 +166,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -502,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B38A3A8-0FD9-40CA-B090-06EF5F306462}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView zoomScale="72" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView tabSelected="1" zoomScale="72" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -538,7 +549,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -552,7 +563,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -566,7 +577,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -580,7 +591,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -594,7 +605,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -608,7 +619,7 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -622,7 +633,7 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -635,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D03C977D-2CBC-46A6-93AC-9B66D1F55A19}">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -671,7 +682,7 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -685,7 +696,7 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -699,7 +710,7 @@
       <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -713,7 +724,7 @@
       <c r="C5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -727,7 +738,7 @@
       <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -741,7 +752,7 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -755,11 +766,15 @@
       <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{AD323B71-F593-447C-8CCC-D27A25614672}"/>
+    <hyperlink ref="D3:D8" r:id="rId2" display="https://raw.githubusercontent.com/gurpreetsondhi1/Newsletter/f3c3cf3ba84225a54b62bd38d4dabc9ef607ffbe/J2.png" xr:uid="{005EB600-F96F-4457-862D-C891A8BCD095}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>